--- a/Sampledata.xlsx
+++ b/Sampledata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/MFinA/FINC 591 - Integrated Financial Analysis ^0 Strategy/NNPS - Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/GitHub/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23713953-A61F-4CCA-B513-00A3F782FA4F}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034D402C-D4D8-455D-B52F-303A4F8E583E}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>Employee Number</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Jetson</t>
   </si>
   <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>EE Rate</t>
   </si>
   <si>
@@ -293,6 +287,24 @@
   </si>
   <si>
     <t>Retiree Health</t>
+  </si>
+  <si>
+    <t>Health Plan</t>
+  </si>
+  <si>
+    <t>Health  Coverage</t>
+  </si>
+  <si>
+    <t>Dental Plan</t>
+  </si>
+  <si>
+    <t>Dental Coverage</t>
+  </si>
+  <si>
+    <t>Vision Plan</t>
+  </si>
+  <si>
+    <t>Vision Coverage</t>
   </si>
 </sst>
 </file>
@@ -711,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,57 +795,57 @@
     </row>
     <row r="2" spans="1:39" ht="16.2" x14ac:dyDescent="0.45">
       <c r="J2" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="21"/>
       <c r="AA2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="19"/>
       <c r="AD2" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
       <c r="AH2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="19"/>
       <c r="AK2" s="19"/>
       <c r="AL2" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AM2" s="19"/>
     </row>
@@ -866,94 +878,94 @@
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="U3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AA3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AE3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AF3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AG3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AH3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
@@ -983,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="L4" s="8">
         <v>66.92</v>
@@ -995,10 +1007,10 @@
         <v>546.35</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P4">
         <v>8.2799999999999994</v>
@@ -1007,10 +1019,10 @@
         <v>21.42</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T4" s="8">
         <v>8</v>
@@ -1102,19 +1114,19 @@
         <v>16</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T5" s="8">
         <v>0</v>
@@ -1215,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="8">
         <v>223.36</v>
@@ -1227,10 +1239,10 @@
         <v>1493.78</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P6">
         <v>25.87</v>
@@ -1239,10 +1251,10 @@
         <v>66.91</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T6" s="8">
         <v>23</v>
@@ -1342,10 +1354,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="L7" s="8">
         <v>66.92</v>
@@ -1354,10 +1366,10 @@
         <v>546.35</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7">
         <v>8.2799999999999994</v>
@@ -1366,10 +1378,10 @@
         <v>21.42</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T7" s="8">
         <v>0</v>
@@ -1464,10 +1476,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" s="8">
         <v>40</v>
@@ -1476,10 +1488,10 @@
         <v>1076.19</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P8">
         <v>15.52</v>
@@ -1488,10 +1500,10 @@
         <v>38.92</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T8" s="8">
         <v>13</v>
@@ -1592,10 +1604,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L9" s="8">
         <v>223.36</v>
@@ -1604,10 +1616,10 @@
         <v>1493.78</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P9">
         <v>25.87</v>
@@ -1616,10 +1628,10 @@
         <v>66.91</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T9" s="8">
         <v>23</v>
@@ -1802,7 +1814,7 @@
       <c r="J25" s="18"/>
       <c r="N25" s="18"/>
       <c r="S25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="9:19" x14ac:dyDescent="0.3">

--- a/Sampledata.xlsx
+++ b/Sampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/GitHub/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034D402C-D4D8-455D-B52F-303A4F8E583E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9678E77-CF30-4BA3-A342-BA9E9BE73372}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>Health Plan</t>
   </si>
   <si>
-    <t>Health  Coverage</t>
-  </si>
-  <si>
     <t>Dental Plan</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Vision Coverage</t>
+  </si>
+  <si>
+    <t>Health Coverage</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +881,7 @@
         <v>84</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>42</v>
@@ -890,10 +890,10 @@
         <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>42</v>
@@ -902,10 +902,10 @@
         <v>81</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>42</v>

--- a/Sampledata.xlsx
+++ b/Sampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/GitHub/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9678E77-CF30-4BA3-A342-BA9E9BE73372}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9C88F1-5F19-485F-8878-E4CE69934193}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Employee Number</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Health Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,11 +1119,16 @@
       <c r="J5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" t="s">
         <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>79</v>
